--- a/data/trans_dic/IP07C31_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>15,67%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 19,88</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 17,8</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 16,21</t>
+          <t>0,0; 68,34</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>10,67%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,92; 31,31</t>
+          <t>6,08; 19,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 27,59</t>
+          <t>4,04; 17,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 25,19</t>
+          <t>6,82; 16,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>1,69; 13,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>5,67; 23,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,34</t>
+          <t>4,97; 14,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 13,98</t>
+          <t>9,92; 31,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,67; 23,1</t>
+          <t>8,25; 27,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 14,93</t>
+          <t>11,4; 25,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C31_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 18,7</t>
+          <t>2,76; 18,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 14,18</t>
+          <t>1,43; 13,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 12,46</t>
+          <t>3,03; 13,1</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 19,88</t>
+          <t>6,59; 18,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 17,8</t>
+          <t>4,06; 17,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 16,21</t>
+          <t>6,57; 16,36</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 13,98</t>
+          <t>1,65; 14,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 23,1</t>
+          <t>5,77; 22,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 14,93</t>
+          <t>5,12; 15,54</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 31,31</t>
+          <t>9,49; 29,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 27,59</t>
+          <t>9,07; 28,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,4; 25,19</t>
+          <t>10,76; 25,55</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,87; 15,68</t>
+          <t>7,8; 15,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,9</t>
+          <t>7,88; 16,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,03</t>
+          <t>8,56; 14,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C31_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -589,14 +589,14 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,34</t>
+          <t>0,0; 64,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 18,51</t>
+          <t>2,96; 18,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 13,26</t>
+          <t>1,44; 13,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 13,1</t>
+          <t>2,94; 13,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 18,96</t>
+          <t>6,43; 18,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 17,66</t>
+          <t>4,0; 17,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 16,36</t>
+          <t>6,66; 15,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 14,54</t>
+          <t>1,44; 14,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 22,12</t>
+          <t>5,75; 22,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 15,54</t>
+          <t>4,8; 15,57</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,49; 29,64</t>
+          <t>8,88; 29,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 28,97</t>
+          <t>9,61; 28,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,76; 25,55</t>
+          <t>10,93; 24,55</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,31</t>
+          <t>7,79; 15,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,88; 16,18</t>
+          <t>7,99; 16,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,14</t>
+          <t>8,72; 14,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C31_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,18 +497,18 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han vivido situaciones de cyberbulling fuera de su colegio</t>
+          <t>Menores que refieren que se han producido situaciones de cyberbulling fuera de su colegio</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0; 3,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,2</t>
+          <t>0; 1,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 18,94</t>
+          <t>0; 2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 13,53</t>
+          <t>0; 1,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 13,14</t>
+          <t>0; 0,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 18,79</t>
+          <t>0; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 17,85</t>
+          <t>0; 2,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 15,86</t>
+          <t>0; 1,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 14,35</t>
+          <t>0; 2,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 22,59</t>
+          <t>0; 2,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,57</t>
+          <t>0; 1,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 29,89</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 28,9</t>
+          <t>0; 0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 24,55</t>
+          <t>0; 0,33</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,05%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>11,39%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 15,64</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,99; 16,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,72; 14,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
